--- a/REVER_DailyTracker_20200520.xlsx
+++ b/REVER_DailyTracker_20200520.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\MVS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Monisha\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA207D89-614F-4D6A-930E-BE34E4227FD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBBE9779-F0AF-4774-887A-22D84F8B7A8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
+    <workbookView xWindow="2076" yWindow="408" windowWidth="20904" windowHeight="11952" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -24,23 +24,17 @@
     <sheet name="Rahman" sheetId="14" r:id="rId9"/>
     <sheet name="Mathes" sheetId="13" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="19">
   <si>
     <t>Task</t>
   </si>
@@ -72,65 +66,31 @@
     <t>% of completion</t>
   </si>
   <si>
-    <t>[Backend] CRM</t>
-  </si>
-  <si>
     <t>Hold</t>
   </si>
   <si>
-    <t>DotnetAPP</t>
-  </si>
-  <si>
-    <t>Loginpage (Frontend)</t>
-  </si>
-  <si>
-    <t>1. Datass are fetched from CRM table and displayed the results in dropdownlist dynamically
-2. Customer type dropdownlist has been created using using enum and displayed in right order
-3. Working on onchange events to select all emailid based on customer types.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Visited  customer information from the contact us  page of hayaai website has been recorded in the database using
- PHP and MYQL
-</t>
-  </si>
-  <si>
-    <t>Hayaai website</t>
-  </si>
-  <si>
-    <t>Sending email is in progress</t>
-  </si>
-  <si>
-    <t>data insertion  and email sending are completed, whereas we have tested email sending using gmail.com for contacts.html.
-We are waiting for actual email settings for hayaai site.</t>
-  </si>
-  <si>
-    <t>Email validation and contact number validation has been completed before submiting fields values to the database.</t>
-  </si>
-  <si>
-    <t>RPA_Sale/[Front End]  Full app keyword search</t>
-  </si>
-  <si>
-    <t>Analysing the all tables to fetch all records and keep it as list and obtaining the keyword by filtering from the list and converting 
-the result with paging and pagelisted concept in MVC</t>
-  </si>
-  <si>
-    <t>Searching string in all tables from the entire database has been completed , whereas UI design and development are pending</t>
-  </si>
-  <si>
-    <t>Searching in all tables and fetching the results and displaying the results at bottom of the master pages, whereas other activities
- like styling and crossref link or sublink tasks are pending.</t>
-  </si>
-  <si>
-    <t>Searching results are coming in right order along with query text, whereas a small design issue is pending and also no data found to be implemented.</t>
-  </si>
-  <si>
-    <t>No data found has been implemented if no records found and etc.
-Attended in RPASale_dev deployeement task</t>
-  </si>
-  <si>
-    <t>Today, I was engaged in rpa selenium tasks for DRS, GRS, and GRD
-DRS was done,
-GRS, till dowload portion is over and whereas, upload is pending as issue in converting xls to csv.</t>
+    <t>29/04/2020</t>
+  </si>
+  <si>
+    <t>Rever B2C</t>
+  </si>
+  <si>
+    <t>IF full flow with technician tracking integration</t>
+  </si>
+  <si>
+    <t>APK sent.</t>
+  </si>
+  <si>
+    <t>MujiStore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MujiStore - Authorization for Stores video </t>
+  </si>
+  <si>
+    <t>Hayaai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Website - pages resizedand fixing alignments. </t>
   </si>
 </sst>
 </file>
@@ -140,7 +100,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,6 +121,22 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -239,10 +215,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -259,28 +238,43 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{91AE6805-01E8-42B9-BB81-A87FD24491E0}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -591,26 +585,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E5FA210-E74C-4956-984B-F79AD1DC1D90}">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D16" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="6.109375" customWidth="1"/>
     <col min="2" max="2" width="13.5546875" customWidth="1"/>
     <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
     <col min="5" max="5" width="18.88671875" customWidth="1"/>
     <col min="6" max="6" width="18.109375" customWidth="1"/>
     <col min="7" max="7" width="104.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -631,177 +624,67 @@
       </c>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D2" s="15" t="s">
+    <row r="2" spans="1:7" s="19" customFormat="1" ht="28.95" customHeight="1">
+      <c r="A2" s="14"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="18"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
+      <c r="C22" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="8"/>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="9"/>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="10"/>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" s="11"/>
+      <c r="C26" t="s">
         <v>10</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:7" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="D4" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="D9" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="4">
-        <v>90</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D12" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="4">
-        <v>95</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="D15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="4">
-        <v>10</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G15" s="19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C19" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19">
-        <v>30</v>
-      </c>
-      <c r="F19" t="s">
-        <v>3</v>
-      </c>
-      <c r="G19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B20" s="8"/>
-      <c r="C20" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B21" s="9"/>
-      <c r="C21" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="10"/>
-      <c r="C22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>40</v>
-      </c>
-      <c r="F22" t="s">
-        <v>3</v>
-      </c>
-      <c r="G22" s="20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B23" s="11"/>
-      <c r="C23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="D25" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E25">
-        <v>80</v>
-      </c>
-      <c r="F25" t="s">
-        <v>3</v>
-      </c>
-      <c r="G25" s="20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="D28" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E28">
-        <v>100</v>
-      </c>
-      <c r="F28" t="s">
-        <v>5</v>
-      </c>
-      <c r="G28" s="20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="D32" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G32" s="20" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -811,26 +694,25 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D97F208-7046-4CD3-9A69-1B907A35455F}">
-  <sheetPr codeName="Sheet10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="6.109375" customWidth="1"/>
     <col min="2" max="2" width="13.5546875" customWidth="1"/>
     <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
     <col min="5" max="5" width="18.88671875" customWidth="1"/>
     <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -853,7 +735,267 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
+      <c r="C22" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="8"/>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="9"/>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="10"/>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" s="11"/>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.6">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>43950</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" ht="15.6">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6">
+        <v>43951</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
+      <c r="C22" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="8"/>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="9"/>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="10"/>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" s="11"/>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -862,7 +1004,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -871,49 +1013,49 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -922,27 +1064,26 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A209DB9-CDA9-4C50-85C1-A0ADA7185189}">
-  <sheetPr codeName="Sheet2"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="6.109375" customWidth="1"/>
     <col min="2" max="2" width="13.5546875" customWidth="1"/>
     <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
     <col min="5" max="5" width="18.88671875" customWidth="1"/>
     <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -965,7 +1106,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -974,7 +1115,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -983,49 +1124,49 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1034,27 +1175,26 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B046864B-E8B4-4B7E-A91C-A0C80AD7F78D}">
-  <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:G26"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="6.109375" customWidth="1"/>
     <col min="2" max="2" width="13.5546875" customWidth="1"/>
     <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
     <col min="5" max="5" width="18.88671875" customWidth="1"/>
     <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1077,7 +1217,119 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
+      <c r="A2" s="22">
+        <v>1</v>
+      </c>
+      <c r="B2" s="23">
+        <v>43971</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" s="4" customFormat="1"/>
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="19" spans="2:3">
+      <c r="C19" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" s="8"/>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" s="9"/>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" s="10"/>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="11"/>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1086,7 +1338,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1095,49 +1347,49 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1146,27 +1398,26 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C523E988-B9D6-4503-8511-E851FE3ED345}">
-  <sheetPr codeName="Sheet4"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="F14" sqref="E14:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="6.109375" customWidth="1"/>
     <col min="2" max="2" width="13.5546875" customWidth="1"/>
     <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
     <col min="5" max="5" width="18.88671875" customWidth="1"/>
     <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1189,7 +1440,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1198,7 +1449,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1207,49 +1458,49 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1258,27 +1509,26 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E32E0A3B-4CCA-47FE-89FF-779CF7651DEC}">
-  <sheetPr codeName="Sheet5"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="6.109375" customWidth="1"/>
     <col min="2" max="2" width="13.5546875" customWidth="1"/>
     <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
     <col min="5" max="5" width="18.88671875" customWidth="1"/>
     <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1301,28 +1551,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6">
-        <v>43950</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="7">
-        <v>1</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>5</v>
-      </c>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1331,49 +1569,49 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1382,27 +1620,26 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0E19C8D-58A2-48BE-81ED-4B005621A3AA}">
-  <sheetPr codeName="Sheet6"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="6.109375" customWidth="1"/>
     <col min="2" max="2" width="13.5546875" customWidth="1"/>
     <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
     <col min="5" max="5" width="18.88671875" customWidth="1"/>
     <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1425,7 +1662,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1434,7 +1671,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1443,385 +1680,49 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5621F7FF-E06F-434B-89A6-3866EAA4F4E8}">
-  <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:G26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="E14:F16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C22" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B23" s="8"/>
-      <c r="C23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B24" s="9"/>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B25" s="10"/>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B26" s="11"/>
-      <c r="C26" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED552E3A-902C-4700-B21A-33FAAF526D17}">
-  <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:G26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C22" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B23" s="8"/>
-      <c r="C23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B24" s="9"/>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B25" s="10"/>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B26" s="11"/>
-      <c r="C26" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{629DA847-E656-4D9F-9186-EF9F1F645789}">
-  <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:G26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C22" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B23" s="8"/>
-      <c r="C23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B24" s="9"/>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B25" s="10"/>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B26" s="11"/>
-      <c r="C26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/REVER_DailyTracker_20200520.xlsx
+++ b/REVER_DailyTracker_20200520.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Monisha\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBBE9779-F0AF-4774-887A-22D84F8B7A8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6AD2F8A-4358-4548-9F72-1504C63994C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2076" yWindow="408" windowWidth="20904" windowHeight="11952" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="22">
   <si>
     <t>Task</t>
   </si>
@@ -84,13 +84,22 @@
     <t>MujiStore</t>
   </si>
   <si>
-    <t xml:space="preserve">MujiStore - Authorization for Stores video </t>
-  </si>
-  <si>
     <t>Hayaai</t>
   </si>
   <si>
     <t xml:space="preserve">Website - pages resizedand fixing alignments. </t>
+  </si>
+  <si>
+    <t>Account Report</t>
+  </si>
+  <si>
+    <t>QMVAR</t>
+  </si>
+  <si>
+    <t>KT Given to Ram</t>
+  </si>
+  <si>
+    <t>DRS Count issue</t>
   </si>
 </sst>
 </file>
@@ -100,7 +109,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,14 +134,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -221,7 +222,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -255,9 +256,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -592,15 +590,15 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="104.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="104.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -624,7 +622,7 @@
       </c>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" s="19" customFormat="1" ht="28.95" customHeight="1">
+    <row r="2" spans="1:7" s="19" customFormat="1" ht="28.9" customHeight="1">
       <c r="A2" s="14"/>
       <c r="B2" s="15"/>
       <c r="C2" s="14"/>
@@ -701,15 +699,15 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -820,21 +818,165 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="4" customFormat="1">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>43970</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" s="4" customFormat="1">
+      <c r="A3" s="13">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6">
+        <v>43970</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" s="4" customFormat="1">
+      <c r="A4" s="13">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6">
+        <v>43970</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="19" spans="2:3">
+      <c r="C19" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" s="8"/>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" s="9"/>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" s="10"/>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="11"/>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -860,46 +1002,22 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.6">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6">
-        <v>43950</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>3</v>
-      </c>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="15.6">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6">
-        <v>43951</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>3</v>
-      </c>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" s="4" customFormat="1"/>
@@ -953,23 +1071,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1064,23 +1182,135 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:G23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="21">
+        <v>1</v>
+      </c>
+      <c r="B2" s="22">
+        <v>43971</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="23">
+        <v>0.7</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" s="4" customFormat="1"/>
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="19" spans="2:3">
+      <c r="C19" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" s="8"/>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" s="9"/>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" s="10"/>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="11"/>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1175,135 +1405,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G23"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="22">
-        <v>1</v>
-      </c>
-      <c r="B2" s="23">
-        <v>43971</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="24">
-        <v>0.7</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" s="4" customFormat="1"/>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="19" spans="2:3">
-      <c r="C19" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3">
-      <c r="B20" s="8"/>
-      <c r="C20" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3">
-      <c r="B21" s="9"/>
-      <c r="C21" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3">
-      <c r="B22" s="10"/>
-      <c r="C22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="11"/>
-      <c r="C23" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="F14" sqref="E14:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1398,23 +1516,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="E14:F16"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1509,23 +1627,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1618,115 +1736,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:G26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
-      <c r="C22" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="8"/>
-      <c r="C23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="9"/>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="10"/>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="B26" s="11"/>
-      <c r="C26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/REVER_DailyTracker_20200520.xlsx
+++ b/REVER_DailyTracker_20200520.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\DailyTracker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mamatha\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6AD2F8A-4358-4548-9F72-1504C63994C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{815CC02B-2DFD-4251-902A-F0B6687519C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="24">
   <si>
     <t>Task</t>
   </si>
@@ -100,6 +100,12 @@
   </si>
   <si>
     <t>DRS Count issue</t>
+  </si>
+  <si>
+    <t>Hayaai APP Sample Push Notification is working</t>
+  </si>
+  <si>
+    <t>Hayaai B2B SR Request correction</t>
   </si>
 </sst>
 </file>
@@ -222,7 +228,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -269,6 +275,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -590,15 +597,15 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="104.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="104.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -622,7 +629,7 @@
       </c>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" s="19" customFormat="1" ht="28.9" customHeight="1">
+    <row r="2" spans="1:7" s="19" customFormat="1" ht="28.95" customHeight="1">
       <c r="A2" s="14"/>
       <c r="B2" s="15"/>
       <c r="C2" s="14"/>
@@ -699,15 +706,15 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -820,19 +827,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -968,15 +975,15 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1075,19 +1082,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1117,8 +1124,12 @@
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
+      <c r="D2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1</v>
+      </c>
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
@@ -1126,8 +1137,12 @@
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="24">
+        <v>0.5</v>
+      </c>
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
@@ -1190,15 +1205,15 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1302,15 +1317,15 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1413,15 +1428,15 @@
       <selection activeCell="F14" sqref="E14:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1524,15 +1539,15 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1635,15 +1650,15 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
